--- a/BalanceSheet/SEDG_bal.xlsx
+++ b/BalanceSheet/SEDG_bal.xlsx
@@ -410,19 +410,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-27662000.0</v>
+        <v>332000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-27769000.0</v>
+        <v>297000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-65226000.0</v>
+        <v>264000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-29004000.0</v>
+        <v>199000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-38290000.0</v>
+        <v>171000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>134283000.0</v>
@@ -1644,19 +1644,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>38832000.0</v>
+        <v>162000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-33676000.0</v>
+        <v>122000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>15766000.0</v>
+        <v>158000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-17589000.0</v>
+        <v>139000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>26536000.0</v>
+        <v>157000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>132230000.0</v>
@@ -2800,19 +2800,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2525000.0</v>
+        <v>-3000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1161000.0</v>
+        <v>-5000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-3565000.0</v>
+        <v>-18000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-2859000.0</v>
+        <v>-15000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>-1114000.0</v>
+        <v>-12000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>7762000.0</v>
